--- a/StrategiesProjects.xlsx
+++ b/StrategiesProjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11202654-006 JCP 008 visa\git2\MetamodelTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0730B84F-4820-4850-9699-790AC17EFD18}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555CA427-12AF-430E-B2CE-F5FF674E561F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41D83518-0F2F-42D3-A596-D1F14DC4049C}"/>
+    <workbookView xWindow="5760" yWindow="2364" windowWidth="17280" windowHeight="8964" xr2:uid="{41D83518-0F2F-42D3-A596-D1F14DC4049C}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t>Strategies</t>
   </si>
@@ -55,9 +55,6 @@
     <t>0006</t>
   </si>
   <si>
-    <t>dredging</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -77,6 +74,246 @@
   </si>
   <si>
     <t>Transboundary management</t>
+  </si>
+  <si>
+    <t>CZ1-8_1-21</t>
+  </si>
+  <si>
+    <t>CZ1-11_1-38</t>
+  </si>
+  <si>
+    <t>CZ1-26</t>
+  </si>
+  <si>
+    <t>CZ1-3</t>
+  </si>
+  <si>
+    <t>CZ1-48</t>
+  </si>
+  <si>
+    <t>CZ1-41</t>
+  </si>
+  <si>
+    <t>CZ1-44</t>
+  </si>
+  <si>
+    <t>CZ1-40</t>
+  </si>
+  <si>
+    <t>CZ1-45</t>
+  </si>
+  <si>
+    <t>CZ1-47</t>
+  </si>
+  <si>
+    <t>CZ1-30</t>
+  </si>
+  <si>
+    <t>CZ12-6</t>
+  </si>
+  <si>
+    <t>CZ1-39</t>
+  </si>
+  <si>
+    <t>CZ1-52</t>
+  </si>
+  <si>
+    <t>CZ1-53</t>
+  </si>
+  <si>
+    <t>CZ4-1</t>
+  </si>
+  <si>
+    <t>CZ1-4</t>
+  </si>
+  <si>
+    <t>CZ1-5</t>
+  </si>
+  <si>
+    <t>CZ1-7</t>
+  </si>
+  <si>
+    <t>CZ1-6</t>
+  </si>
+  <si>
+    <t>CZ12-8</t>
+  </si>
+  <si>
+    <t>CZ17-1</t>
+  </si>
+  <si>
+    <t>CZ1-1</t>
+  </si>
+  <si>
+    <t>MR1-2</t>
+  </si>
+  <si>
+    <t>MR1-5</t>
+  </si>
+  <si>
+    <t>MR1-1</t>
+  </si>
+  <si>
+    <t>MR1-46</t>
+  </si>
+  <si>
+    <t>MR3-1</t>
+  </si>
+  <si>
+    <t>MR1-6</t>
+  </si>
+  <si>
+    <t>MR12-1</t>
+  </si>
+  <si>
+    <t>UA1-3</t>
+  </si>
+  <si>
+    <t>UA10-1</t>
+  </si>
+  <si>
+    <t>UA11-1</t>
+  </si>
+  <si>
+    <t>UA3-1</t>
+  </si>
+  <si>
+    <t>UA9-3</t>
+  </si>
+  <si>
+    <t>UA1-2</t>
+  </si>
+  <si>
+    <t>UA20-1</t>
+  </si>
+  <si>
+    <t>UA9-1</t>
+  </si>
+  <si>
+    <t>UA23-2</t>
+  </si>
+  <si>
+    <t>UA23-1</t>
+  </si>
+  <si>
+    <t>UA9-2</t>
+  </si>
+  <si>
+    <t>UA1-1</t>
+  </si>
+  <si>
+    <t>DP1-21_1</t>
+  </si>
+  <si>
+    <t>DP1-3</t>
+  </si>
+  <si>
+    <t>DP1-1</t>
+  </si>
+  <si>
+    <t>DP1-21_2</t>
+  </si>
+  <si>
+    <t>DP1-4_1-5</t>
+  </si>
+  <si>
+    <t>DP25-1</t>
+  </si>
+  <si>
+    <t>DP25-2</t>
+  </si>
+  <si>
+    <t>DP25-3</t>
+  </si>
+  <si>
+    <t>DP15-3</t>
+  </si>
+  <si>
+    <t>CH1-11</t>
+  </si>
+  <si>
+    <t>CH1-10</t>
+  </si>
+  <si>
+    <t>CH26-2</t>
+  </si>
+  <si>
+    <t>CH9-2</t>
+  </si>
+  <si>
+    <t>CH12-4</t>
+  </si>
+  <si>
+    <t>CH26-1</t>
+  </si>
+  <si>
+    <t>CH1-1</t>
+  </si>
+  <si>
+    <t>CH26-5</t>
+  </si>
+  <si>
+    <t>HR 2-1_2-2</t>
+  </si>
+  <si>
+    <t>HR1-1</t>
+  </si>
+  <si>
+    <t>HR2-4</t>
+  </si>
+  <si>
+    <t>HR14-1</t>
+  </si>
+  <si>
+    <t>HR15-4_5</t>
+  </si>
+  <si>
+    <t>HR14-3</t>
+  </si>
+  <si>
+    <t>CC18-5</t>
+  </si>
+  <si>
+    <t>CC12-37</t>
+  </si>
+  <si>
+    <t>CC1-4</t>
+  </si>
+  <si>
+    <t>CC1-3</t>
+  </si>
+  <si>
+    <t>CC1-41</t>
+  </si>
+  <si>
+    <t>CC1-43</t>
+  </si>
+  <si>
+    <t>CC9-18</t>
+  </si>
+  <si>
+    <t>CC9-10</t>
+  </si>
+  <si>
+    <t>CC9-11</t>
+  </si>
+  <si>
+    <t>CC9-17</t>
+  </si>
+  <si>
+    <t>CC9-13</t>
+  </si>
+  <si>
+    <t>CC1-45</t>
+  </si>
+  <si>
+    <t>CC1-46</t>
+  </si>
+  <si>
+    <t>CC9-12</t>
+  </si>
+  <si>
+    <t>CC16-19</t>
   </si>
 </sst>
 </file>
@@ -144,16 +381,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -474,7 +708,7 @@
   <dimension ref="A1:CC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,253 +716,253 @@
     <col min="2" max="81" width="3.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:81" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1">
+      <c r="I1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1">
+      <c r="K1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="M1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="O1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="Q1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="R1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="S1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="T1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="U1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="V1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="W1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="X1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="Y1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="Z1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AA1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AB1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AC1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AD1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AE1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AF1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AG1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AH1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AI1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AJ1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AK1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AL1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AM1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="AN1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="AO1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="AP1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="AQ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="AR1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="AS1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="AT1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="AU1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="AV1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="AW1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="AX1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="AY1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="AZ1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BA1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BB1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BC1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BD1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BE1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BF1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BG1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="BH1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1">
+      <c r="BI1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1">
+      <c r="BJ1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1">
+      <c r="BK1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1">
+      <c r="BL1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1">
+      <c r="BM1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1">
+      <c r="BN1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1">
+      <c r="BO1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="1">
+      <c r="BP1" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -973,7 +1207,7 @@
       </c>
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -1218,7 +1452,7 @@
       </c>
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -1463,7 +1697,7 @@
       </c>
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1708,7 +1942,7 @@
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -1953,7 +2187,7 @@
       </c>
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -2221,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2229,7 +2463,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2237,7 +2471,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2245,7 +2479,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2253,7 +2487,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2261,7 +2495,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2269,7 +2503,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
